--- a/Julio/22 julio/huimanguillo/LISTA DE ASPIRANTES ITHUI 22 DE JULIO 2024.xlsx
+++ b/Julio/22 julio/huimanguillo/LISTA DE ASPIRANTES ITHUI 22 DE JULIO 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevl\Documents\ALUMNOS NUEVO INGRESO 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxoC\OneDrive\Documents\EVALUATEC2024\Julio\22 julio\huimanguillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_32682353835ADE5F530AF4E75A563696F2DC2ED1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003301A4-0CE5-490A-8976-9246484D407A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -871,7 +871,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1104,19 +1104,29 @@
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -1323,27 +1333,31 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A4:K68" totalsRowShown="0">
+  <autoFilter ref="A4:K68" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K68">
+    <sortCondition ref="E4:E68"/>
+  </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FICHA" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NOMBRE ASPIRANTE" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CURP" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FICHA" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NOMBRE ASPIRANTE" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CURP" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CORREO ELECTRONICO"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="CLAVE CARRERA" dataDxfId="5" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CARRERA" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="CLAVE CARRERA" dataDxfId="6" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CARRERA" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VERSION"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HORA APLICACIÓN OFICIAL" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="AULA" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HORA APLICACIÓN OFICIAL" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="AULA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1381,7 +1395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1487,7 +1501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1629,7 +1643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1639,11 +1653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="E36" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -1658,12 +1672,12 @@
     <col min="11" max="11" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="41.1" customHeight="1">
+    <row r="1" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1674,10 +1688,10 @@
       <c r="H2" s="17"/>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" thickTop="1">
+    <row r="3" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:13" ht="32.25" thickBot="1">
+    <row r="4" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1712,7 +1726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1">
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1747,24 +1761,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>19</v>
@@ -1784,18 +1798,18 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1">
+    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>17</v>
@@ -1819,24 +1833,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" thickBot="1">
+    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>37</v>
+        <v>64</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>19</v>
@@ -1854,18 +1868,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" thickBot="1">
+    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>17</v>
@@ -1889,24 +1903,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" thickBot="1">
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>37</v>
+        <v>72</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>19</v>
@@ -1924,24 +1938,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" thickBot="1">
+    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>19</v>
@@ -1959,24 +1973,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" thickBot="1">
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>37</v>
+        <v>104</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>19</v>
@@ -1994,24 +2008,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="6" t="s">
-        <v>55</v>
+    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>60</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>19</v>
@@ -2029,23 +2043,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="7" t="s">
-        <v>61</v>
+    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>64</v>
+        <v>114</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -2064,18 +2078,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1">
+    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>17</v>
@@ -2099,18 +2113,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1">
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>17</v>
@@ -2134,24 +2148,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A17" s="6" t="s">
-        <v>73</v>
+    <row r="17" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>28</v>
+        <v>142</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>19</v>
@@ -2169,24 +2183,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A18" s="7" t="s">
-        <v>77</v>
+    <row r="18" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>28</v>
+        <v>162</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>19</v>
@@ -2204,23 +2218,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A19" s="6" t="s">
-        <v>81</v>
+    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>84</v>
+        <v>182</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -2239,24 +2253,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" thickBot="1">
+    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>59</v>
+        <v>191</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>19</v>
@@ -2274,24 +2288,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A21" s="6" t="s">
-        <v>89</v>
+    <row r="21" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>38</v>
+        <v>197</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>19</v>
@@ -2309,24 +2323,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A22" s="7" t="s">
-        <v>93</v>
+    <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>28</v>
+        <v>233</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>19</v>
@@ -2344,24 +2358,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A23" s="6" t="s">
-        <v>97</v>
+    <row r="23" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>28</v>
+        <v>237</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>19</v>
@@ -2379,23 +2393,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A24" s="7" t="s">
-        <v>101</v>
+    <row r="24" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>104</v>
+        <v>241</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="12" t="s">
@@ -2414,23 +2428,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A25" s="6" t="s">
-        <v>105</v>
+    <row r="25" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>108</v>
+        <v>34</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -2449,24 +2463,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5" thickBot="1">
+    <row r="26" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>19</v>
@@ -2484,24 +2498,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A27" s="6" t="s">
-        <v>113</v>
+    <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>18</v>
+        <v>52</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>19</v>
@@ -2519,23 +2533,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A28" s="7" t="s">
-        <v>117</v>
+    <row r="28" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="12" t="s">
@@ -2554,24 +2568,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.5" thickBot="1">
+    <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>17</v>
+        <v>108</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>19</v>
@@ -2589,24 +2603,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.5" thickBot="1">
+    <row r="30" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>17</v>
+        <v>120</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>19</v>
@@ -2624,7 +2638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.5" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>129</v>
       </c>
@@ -2659,24 +2673,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>19</v>
@@ -2694,24 +2708,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A33" s="6" t="s">
-        <v>137</v>
+    <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>140</v>
+        <v>174</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>19</v>
@@ -2729,24 +2743,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A34" s="7" t="s">
-        <v>141</v>
+    <row r="34" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>18</v>
+        <v>186</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>19</v>
@@ -2764,24 +2778,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16.5" thickBot="1">
+    <row r="35" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>19</v>
@@ -2799,23 +2813,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A36" s="7" t="s">
-        <v>149</v>
+    <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>152</v>
+        <v>209</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>211</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="12" t="s">
@@ -2834,655 +2848,655 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16.5" thickBot="1">
+    <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D46" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A38" s="7" t="s">
+      <c r="G46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D47" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A39" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A40" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="G47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A41" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="G52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A42" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A43" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="G53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A44" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A45" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A46" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A47" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="9" t="s">
+      <c r="G54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F55" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A48" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A49" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A50" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A51" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A52" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A53" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A54" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A55" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="G55" s="12" t="s">
         <v>19</v>
       </c>
@@ -3499,18 +3513,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="16.5" thickBot="1">
+    <row r="56" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>27</v>
@@ -3534,24 +3548,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="16.5" thickBot="1">
+    <row r="57" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>232</v>
+        <v>97</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>19</v>
@@ -3569,24 +3583,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A58" s="7" t="s">
-        <v>236</v>
+    <row r="58" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>18</v>
+        <v>138</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>19</v>
@@ -3604,24 +3618,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A59" s="6" t="s">
-        <v>240</v>
+    <row r="59" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>18</v>
+        <v>166</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>19</v>
@@ -3639,23 +3653,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A60" s="7" t="s">
-        <v>244</v>
+    <row r="60" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>247</v>
+        <v>170</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G60" s="12" t="s">
@@ -3674,24 +3688,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="16.5" thickBot="1">
+    <row r="61" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G61" s="12" t="s">
         <v>19</v>
@@ -3709,23 +3723,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A62" s="7" t="s">
-        <v>252</v>
+    <row r="62" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>255</v>
+        <v>193</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G62" s="12" t="s">
@@ -3744,24 +3758,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A63" s="6" t="s">
-        <v>256</v>
+    <row r="63" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>259</v>
+        <v>205</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>19</v>
@@ -3779,24 +3793,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="16.5" thickBot="1">
+    <row r="64" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>19</v>
@@ -3814,23 +3828,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A65" s="6" t="s">
-        <v>264</v>
+    <row r="65" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>267</v>
+        <v>245</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G65" s="12" t="s">
@@ -3849,24 +3863,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="16.5" thickBot="1">
+    <row r="66" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>19</v>
@@ -3884,24 +3898,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="16.5" thickBot="1">
+    <row r="67" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>19</v>
@@ -3919,7 +3933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16.5" thickBot="1">
+    <row r="68" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>276</v>
       </c>
@@ -3960,8 +3974,11 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="J1:J3"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="mailto:dda_huimanguillo@tecnm.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D52" r:id="rId1" display="mailto:dda_huimanguillo@tecnm.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/Julio/22 julio/huimanguillo/LISTA DE ASPIRANTES ITHUI 22 DE JULIO 2024.xlsx
+++ b/Julio/22 julio/huimanguillo/LISTA DE ASPIRANTES ITHUI 22 DE JULIO 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxoC\OneDrive\Documents\EVALUATEC2024\Julio\22 julio\huimanguillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003301A4-0CE5-490A-8976-9246484D407A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10BBFDE-FFDB-473B-BD34-0421E82B7A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E36" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E68"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
